--- a/estudiantes_resumen.xlsx
+++ b/estudiantes_resumen.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="resumen" sheetId="2" r:id="rId2"/>
+    <sheet name="Aprobados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>nombre</t>
   </si>
@@ -56,10 +56,7 @@
     <t>vagancia</t>
   </si>
   <si>
-    <t>No pasa</t>
-  </si>
-  <si>
-    <t>Pasa</t>
+    <t>reprobado</t>
   </si>
   <si>
     <t>aprobado</t>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -518,67 +515,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
